--- a/output/fit_clients/fit_round_197.xlsx
+++ b/output/fit_clients/fit_round_197.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2044579822.910514</v>
+        <v>1658565874.436907</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1059209488591544</v>
+        <v>0.07077432000332223</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03503314092797924</v>
+        <v>0.04012932297814357</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1022289913.108132</v>
       </c>
     </row>
     <row r="3">
@@ -530,22 +514,16 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2574675984.332162</v>
+        <v>1668924867.214346</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1524508932948235</v>
+        <v>0.1759223298682402</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04424671537499616</v>
+        <v>0.03633377860148419</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1287338121.201419</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3204875926.72578</v>
+        <v>4756686239.513775</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1135130203762706</v>
+        <v>0.1324774045784045</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02880526708890345</v>
+        <v>0.0242611899086862</v>
       </c>
       <c r="H4" t="b">
         <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>71</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1602437921.200559</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2987596009.824838</v>
+        <v>3548744221.222897</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08499975377636521</v>
+        <v>0.06935639246560443</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03143810835216455</v>
+        <v>0.04621884072752801</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>75</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1493798075.58628</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2582045136.638435</v>
+        <v>2099124446.278938</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1476843514036948</v>
+        <v>0.1132199217673611</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03464088728769844</v>
+        <v>0.0373316852784867</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>33</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1291022534.903182</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2330416394.298581</v>
+        <v>2447734127.742587</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06363970454821503</v>
+        <v>0.07802705686467605</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0332440667995911</v>
+        <v>0.0401115236281592</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>61</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1165208226.527463</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3344580296.396524</v>
+        <v>2655994408.108758</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1526650340918199</v>
+        <v>0.2064840375461353</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02202352634937858</v>
+        <v>0.02223440222677363</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>63</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1672290240.911374</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1450053931.222061</v>
+        <v>2198937007.76939</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1578468121153569</v>
+        <v>0.1730088312877671</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02596201582046942</v>
+        <v>0.03693962111406662</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>725027068.5067202</v>
       </c>
     </row>
     <row r="10">
@@ -768,22 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4669548823.276503</v>
+        <v>4584269121.165529</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1888000722924844</v>
+        <v>0.1662157466749456</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04927233013566343</v>
+        <v>0.04937901634200811</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>83</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2334774485.321303</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3671754217.312903</v>
+        <v>4021696295.825747</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1447399027782567</v>
+        <v>0.1769981462175492</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04324702696643646</v>
+        <v>0.03320734283142471</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>82</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1835877098.396418</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3157215406.76248</v>
+        <v>2216534289.37414</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1452269686524833</v>
+        <v>0.1203484569102288</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04315848537635879</v>
+        <v>0.04121735843945883</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>70</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1578607735.779358</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3483984132.206641</v>
+        <v>3708075909.339469</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09485579790429438</v>
+        <v>0.06835868071585456</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01980700435557137</v>
+        <v>0.02146851144249931</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>66</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1741992147.229068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3174781742.825263</v>
+        <v>3075969000.921372</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1165759276177954</v>
+        <v>0.169341963342859</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03672081045610741</v>
+        <v>0.03581426739541154</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>66</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1587390893.17671</v>
       </c>
     </row>
     <row r="15">
@@ -938,22 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1708472729.769768</v>
+        <v>1808323846.486408</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09636918315311629</v>
+        <v>0.06938268612151262</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03978959118772125</v>
+        <v>0.03887398100949697</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>854236497.6347082</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2594809541.372572</v>
+        <v>1869444247.210462</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1165982825851075</v>
+        <v>0.1059344415102991</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03199486817073452</v>
+        <v>0.03646256447373046</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>30</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1297404793.007236</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4932026713.259906</v>
+        <v>3738488238.622783</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1490612152966054</v>
+        <v>0.1326113766017939</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03296969720266425</v>
+        <v>0.04666432387280741</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>58</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2466013345.161372</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3840858182.44904</v>
+        <v>4004704024.463214</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1793501443989288</v>
+        <v>0.1611168628930545</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02697334357252239</v>
+        <v>0.02509918149106331</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>65</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1920429060.548034</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1061762737.700635</v>
+        <v>1359288988.959392</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1348155597923552</v>
+        <v>0.155558574783491</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02491266460027661</v>
+        <v>0.02610828553944976</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>530881413.0830091</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2153309561.871411</v>
+        <v>1766585479.303365</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1599974589036869</v>
+        <v>0.1370582368463896</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03087659404983752</v>
+        <v>0.03072649643473408</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>33</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1076654790.937055</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2404673162.953283</v>
+        <v>1985725650.519244</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06365599605745363</v>
+        <v>0.06473990337635081</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04549599630907598</v>
+        <v>0.03596770172252612</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>15</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1202336578.713139</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3673540309.107134</v>
+        <v>3129884772.931371</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1114319767147756</v>
+        <v>0.09595225255037296</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04391598628599346</v>
+        <v>0.04852761778399432</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>54</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1836770175.730447</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1491067346.781648</v>
+        <v>1169095549.20234</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1607324921743604</v>
+        <v>0.1515344939482988</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04238919761801502</v>
+        <v>0.04466774171575915</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>745533660.8162533</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2710172843.323995</v>
+        <v>3725579734.941143</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1359689594201997</v>
+        <v>0.1210173958528405</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03704865046350602</v>
+        <v>0.02956625869569734</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>58</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1355086476.383776</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1392143350.763405</v>
+        <v>945215217.1680245</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1171077550836981</v>
+        <v>0.0816207631326239</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02535675808089895</v>
+        <v>0.02041487819902487</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>696071649.1371639</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1190158618.509996</v>
+        <v>1066169534.677267</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1011032826304134</v>
+        <v>0.110790947191588</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02490025152379317</v>
+        <v>0.03059723898276455</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>595079327.8656354</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4520353369.877213</v>
+        <v>4402406796.150299</v>
       </c>
       <c r="F27" t="n">
-        <v>0.147615333321143</v>
+        <v>0.1407238379246879</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02233081397560473</v>
+        <v>0.01905406258110879</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>46</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2260176669.207688</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2775257964.934911</v>
+        <v>3792892325.341863</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1111038045916797</v>
+        <v>0.1232179056286964</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04424823524547231</v>
+        <v>0.03836255096745034</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>64</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1387628974.149502</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5692923739.55436</v>
+        <v>5477286968.233865</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1231016292722849</v>
+        <v>0.1259432405524289</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03372116959505825</v>
+        <v>0.03275857619807592</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>88</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2846461769.273173</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1839076315.160179</v>
+        <v>1596771963.925055</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1152769408632516</v>
+        <v>0.1328064592904771</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03115953566541137</v>
+        <v>0.02708112901622472</v>
       </c>
       <c r="H30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>919538176.6686238</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1234890025.698468</v>
+        <v>1178853463.279537</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1046263867563022</v>
+        <v>0.0802383905753096</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04183935767240517</v>
+        <v>0.04439827953934044</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>617444956.0712439</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1162109479.523589</v>
+        <v>1303294306.701532</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08619936143131604</v>
+        <v>0.1045002675906943</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02903506173256805</v>
+        <v>0.02812458233684625</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>581054738.1021414</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2209291687.706397</v>
+        <v>3033067518.72013</v>
       </c>
       <c r="F33" t="n">
-        <v>0.187351080551668</v>
+        <v>0.1373319642884954</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03710722594727914</v>
+        <v>0.0610447553135893</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>59</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1104645906.787484</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1150460046.658882</v>
+        <v>1050183346.412657</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08681042906531823</v>
+        <v>0.1040089977748107</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02186872779603798</v>
+        <v>0.02835137388695859</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>575230036.4717518</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1311542835.585545</v>
+        <v>1180518097.273579</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1046613037643276</v>
+        <v>0.1167220270876784</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04378797876139603</v>
+        <v>0.02814503617946912</v>
       </c>
       <c r="H35" t="b">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>655771368.0322583</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2340081359.562289</v>
+        <v>2894983690.31848</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1230473925699486</v>
+        <v>0.1591352391990123</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0245977465153199</v>
+        <v>0.02177402465997827</v>
       </c>
       <c r="H36" t="b">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>50</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1170040714.530828</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2479867097.194534</v>
+        <v>2051080819.664123</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09564313454774934</v>
+        <v>0.07586830834693219</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04203456349346031</v>
+        <v>0.0386063425223281</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>53</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1239933641.901311</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2125032913.120574</v>
+        <v>1853007703.577214</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1053803289648187</v>
+        <v>0.1217163968376457</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03083895620571667</v>
+        <v>0.02698147366212362</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1062516417.501165</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1608518263.251643</v>
+        <v>1901334980.939524</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1607725103323818</v>
+        <v>0.1546027611946033</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02114257339267024</v>
+        <v>0.02266288755058785</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>804259185.5740776</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1450881850.846423</v>
+        <v>1605805165.19104</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1265523868343571</v>
+        <v>0.1348135568565231</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05323982196611935</v>
+        <v>0.03756965411419948</v>
       </c>
       <c r="H40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>725440903.8740442</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2792406489.934057</v>
+        <v>2798522499.475701</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1546760526254611</v>
+        <v>0.1454282777339686</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02985620316272703</v>
+        <v>0.03520258621454993</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>49</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1396203241.567863</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1856,22 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3648123935.746386</v>
+        <v>3305824092.370052</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08462392639441396</v>
+        <v>0.09727085188174586</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0283405112392369</v>
+        <v>0.03245013048409209</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>66</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1824061972.919416</v>
       </c>
     </row>
     <row r="43">
@@ -1890,22 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2255303598.395082</v>
+        <v>2981322228.834282</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1467960766698996</v>
+        <v>0.1984133056797852</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02498296994470023</v>
+        <v>0.02547255380061992</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>68</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1127651872.443359</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2078880015.034631</v>
+        <v>1978907581.613543</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09995929379315703</v>
+        <v>0.07817863093888805</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02639221949013382</v>
+        <v>0.02737068013822691</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1039440129.573117</v>
       </c>
     </row>
     <row r="45">
@@ -1958,22 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1634830315.283679</v>
+        <v>2539141751.711191</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1288482042862117</v>
+        <v>0.1176916543155351</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05067604081301835</v>
+        <v>0.04770375604693593</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>817415111.6763588</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4266648459.007797</v>
+        <v>4516652202.152647</v>
       </c>
       <c r="F46" t="n">
-        <v>0.170939428818084</v>
+        <v>0.1255688488847392</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04602019299267526</v>
+        <v>0.04341571012887343</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>70</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2133324214.318459</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4108394577.194449</v>
+        <v>4671386589.75686</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1244850086482565</v>
+        <v>0.1691816034723781</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0431989580596159</v>
+        <v>0.05634310107786555</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>53</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2054197293.834283</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3559589439.51455</v>
+        <v>4726492199.251318</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1015007922190863</v>
+        <v>0.0964812640226452</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02814296906609541</v>
+        <v>0.03727880176643491</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>65</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1779794779.690157</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1867866607.892077</v>
+        <v>1289862671.476957</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1811718063206517</v>
+        <v>0.1686748311660847</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0354218141551874</v>
+        <v>0.03888714978127093</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>933933278.7429315</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3937747253.875669</v>
+        <v>3507415250.567891</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1094400183525626</v>
+        <v>0.1786414019766173</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03790771349474273</v>
+        <v>0.0479973306410367</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>67</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1968873620.035076</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1077786993.31409</v>
+        <v>1152542978.848938</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1749271620508779</v>
+        <v>0.1951302128860826</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03589001760822549</v>
+        <v>0.03377966437050321</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>538893567.9811275</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3215957020.749607</v>
+        <v>4743557796.583847</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1297671769341603</v>
+        <v>0.09421571978915375</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05862983349742954</v>
+        <v>0.05662194454297867</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>81</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1607978612.975566</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2230,22 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2358915393.688247</v>
+        <v>3110656755.451188</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1785186178434916</v>
+        <v>0.1788768666893809</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02140172626747995</v>
+        <v>0.03422185865530965</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>56</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1179457773.485149</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4678970730.929811</v>
+        <v>4822377042.358898</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1403511311459065</v>
+        <v>0.1107418527450397</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04572541473826034</v>
+        <v>0.04379934490844339</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>65</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2339485482.845585</v>
       </c>
     </row>
     <row r="55">
@@ -2298,22 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3107585479.861939</v>
+        <v>4769656622.329022</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1993757674896999</v>
+        <v>0.1894084290754733</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03218300434598451</v>
+        <v>0.02466842869838603</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>50</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1553792675.417452</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1589744489.655631</v>
+        <v>1250475829.854301</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1189843085186551</v>
+        <v>0.1438256909368842</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04470771157481361</v>
+        <v>0.04391420768821098</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>794872273.7652032</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3184336137.719087</v>
+        <v>4048097629.705447</v>
       </c>
       <c r="F57" t="n">
-        <v>0.163339348315379</v>
+        <v>0.1238740621516223</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01912652948858789</v>
+        <v>0.02196337433992087</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>63</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1592168088.721235</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1384791273.1682</v>
+        <v>1703989280.280237</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1767334932446669</v>
+        <v>0.1743071334352881</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03000474763703474</v>
+        <v>0.02417054116240438</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>692395678.2047045</v>
       </c>
     </row>
     <row r="59">
@@ -2434,22 +2082,16 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3682364217.912761</v>
+        <v>4289457407.396123</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1277700156816254</v>
+        <v>0.1224317716055038</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04457062996286026</v>
+        <v>0.03259628472792776</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>53</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1841182100.180814</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2468,22 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3278330476.033585</v>
+        <v>2654436042.732876</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1939611610589871</v>
+        <v>0.1471390764489428</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02878080269403768</v>
+        <v>0.02937613008073431</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>61</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1639165337.536414</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2634588549.932111</v>
+        <v>2303796407.054703</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1092301704759211</v>
+        <v>0.1657055390055152</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02190713554918812</v>
+        <v>0.02083090781835993</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>67</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1317294289.87343</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1758799460.985311</v>
+        <v>1750244093.482289</v>
       </c>
       <c r="F62" t="n">
-        <v>0.17471474612666</v>
+        <v>0.1858524431755059</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03828956180491863</v>
+        <v>0.04288926139647714</v>
       </c>
       <c r="H62" t="b">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>879399752.3539364</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4862564584.911706</v>
+        <v>5210527772.731955</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1048706016436487</v>
+        <v>0.1058095149959815</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03056099673054096</v>
+        <v>0.03993199164158355</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>56</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2431282316.321429</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4332501909.914767</v>
+        <v>5188846062.226937</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1653022978986663</v>
+        <v>0.170241434342676</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02576167970758858</v>
+        <v>0.02262496698474077</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>61</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2166251014.185915</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5159014775.032472</v>
+        <v>4062001910.88541</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1409130209598147</v>
+        <v>0.1354345095470829</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02998950852006613</v>
+        <v>0.02006477119702001</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>71</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2579507336.9231</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4379127183.545516</v>
+        <v>3762233501.747986</v>
       </c>
       <c r="F66" t="n">
-        <v>0.118659593692824</v>
+        <v>0.1410594977647177</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03996313590492442</v>
+        <v>0.04238385115424605</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>57</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2189563585.647183</v>
       </c>
     </row>
     <row r="67">
@@ -2706,22 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3094564160.071835</v>
+        <v>2640139393.233165</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09095068512256949</v>
+        <v>0.08306100834585238</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03971447013653936</v>
+        <v>0.03948605266359726</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>65</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1547282090.297204</v>
       </c>
     </row>
     <row r="68">
@@ -2740,22 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4432350363.771939</v>
+        <v>4258071782.398398</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1248280468416658</v>
+        <v>0.1436707072140098</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03436769649152181</v>
+        <v>0.05123334846747465</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>65</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2216175203.849257</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1651210413.602703</v>
+        <v>2365697468.111772</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1522570862290122</v>
+        <v>0.1669427285207605</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04125043649678633</v>
+        <v>0.04426181729856962</v>
       </c>
       <c r="H69" t="b">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>825605166.6689937</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3310296705.7275</v>
+        <v>2452292579.45593</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1006700488788464</v>
+        <v>0.07461481264218438</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04546750264171019</v>
+        <v>0.04271014558537083</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>56</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1655148350.036108</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4045954141.613568</v>
+        <v>5464930911.42838</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1428813209816231</v>
+        <v>0.1642365639844863</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03033813667817886</v>
+        <v>0.02938946792663085</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>72</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2022977105.295186</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2188784857.671468</v>
+        <v>1941542852.657009</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08428139029216764</v>
+        <v>0.0886409312927489</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03903621587390563</v>
+        <v>0.03844706692044034</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1094392344.731993</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3436647885.974579</v>
+        <v>3385618046.670147</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09503177912563453</v>
+        <v>0.0712092501195163</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0473103006163977</v>
+        <v>0.04027391771422746</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>75</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1718323898.969355</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2504266396.908195</v>
+        <v>2840885350.600993</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1702272242853741</v>
+        <v>0.1456315646551803</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03489267607122946</v>
+        <v>0.02509835861837255</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>67</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1252133306.686288</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2498928823.799546</v>
+        <v>2457933878.165318</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1358598258470337</v>
+        <v>0.1427717025848088</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02519697434842668</v>
+        <v>0.03317064337448632</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1249464329.240667</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4949880044.310844</v>
+        <v>4846415545.25995</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09559964404265052</v>
+        <v>0.1163909842118976</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02422065213323419</v>
+        <v>0.02877086054684051</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>45</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2474940046.69624</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -3046,22 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1493478444.048253</v>
+        <v>1633714416.682183</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1515573186710058</v>
+        <v>0.1679708276877046</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02684740988928798</v>
+        <v>0.02643922187792232</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>746739208.7233835</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3396886739.186825</v>
+        <v>3059960140.430999</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1049061648641296</v>
+        <v>0.1030127822493039</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05071465747902583</v>
+        <v>0.05665288273387646</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>68</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1698443378.4366</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1297974269.714821</v>
+        <v>1704158732.27202</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1334745837631587</v>
+        <v>0.1067955897969064</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02738208047329072</v>
+        <v>0.02933573991009611</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>648987133.6823485</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5109664318.838537</v>
+        <v>5013319498.354838</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09686045399445962</v>
+        <v>0.0736965594102381</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02376293739548415</v>
+        <v>0.03272419421123</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>41</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2554832214.054156</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3370219953.088969</v>
+        <v>4606437112.918895</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0866523231913285</v>
+        <v>0.1194377728228444</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03309925365713225</v>
+        <v>0.03124642473161733</v>
       </c>
       <c r="H81" t="b">
         <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>43</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1685109916.358639</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3856621525.459941</v>
+        <v>5141862187.346349</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1658206555115016</v>
+        <v>0.1747077531594808</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02953583488761423</v>
+        <v>0.02878065184765971</v>
       </c>
       <c r="H82" t="b">
         <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>69</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1928310810.482383</v>
       </c>
     </row>
     <row r="83">
@@ -3250,22 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1992765501.278597</v>
+        <v>2345517828.766922</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1282464286645831</v>
+        <v>0.1454463400855572</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03753798516013179</v>
+        <v>0.03016623697978927</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>996382735.0501578</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1924969741.361008</v>
+        <v>2540762170.007446</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09373006235342558</v>
+        <v>0.1113440447851157</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0342880064601044</v>
+        <v>0.03977111205033033</v>
       </c>
       <c r="H84" t="b">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>962484886.6330891</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3105182521.707282</v>
+        <v>2352358200.088962</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1523083367780777</v>
+        <v>0.1381798595736964</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0433008915891346</v>
+        <v>0.04771774905328476</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>74</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1552591332.588274</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2300697210.294816</v>
+        <v>1777706873.030601</v>
       </c>
       <c r="F86" t="n">
-        <v>0.104680002978759</v>
+        <v>0.1122657370124259</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02563458273568098</v>
+        <v>0.01907600058352134</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>27</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1150348674.565778</v>
       </c>
     </row>
     <row r="87">
@@ -3386,22 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1373731197.630712</v>
+        <v>1464712040.414916</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1251717315901524</v>
+        <v>0.1821680832095014</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04412397989718873</v>
+        <v>0.03851766147149775</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>686865698.8984133</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2991904065.878487</v>
+        <v>2882152469.357036</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1394795340298054</v>
+        <v>0.1367331165648254</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03539021708969668</v>
+        <v>0.02842971707788202</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>78</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1495952062.558265</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3375635267.10892</v>
+        <v>2519137303.441699</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1256204625734311</v>
+        <v>0.1346154551660468</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02660696278266262</v>
+        <v>0.03287560926914713</v>
       </c>
       <c r="H89" t="b">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>69</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1687817644.108964</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -3488,22 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1837059140.749554</v>
+        <v>1487443434.396755</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1085529709378205</v>
+        <v>0.1153684835367167</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05587551727769854</v>
+        <v>0.03752802135654164</v>
       </c>
       <c r="H90" t="b">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>918529610.8074358</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1698182799.871227</v>
+        <v>1428787760.867168</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1306612569930848</v>
+        <v>0.1721961732785582</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03748432655450096</v>
+        <v>0.04223292568240963</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>849091412.4129848</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1914560561.661439</v>
+        <v>2484165795.454945</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07221626401458921</v>
+        <v>0.08451850435150439</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0321572399599737</v>
+        <v>0.03774121613803367</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>48</v>
-      </c>
-      <c r="J92" t="n">
-        <v>957280220.5262959</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4862664194.648016</v>
+        <v>4769509423.816564</v>
       </c>
       <c r="F93" t="n">
-        <v>0.117836154866692</v>
+        <v>0.135663094812129</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03677930730752858</v>
+        <v>0.0440819230316528</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>62</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2431332042.154817</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2518203359.820115</v>
+        <v>2495092428.612424</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1356627889197944</v>
+        <v>0.1590292340406715</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0347485977284599</v>
+        <v>0.03882181280485241</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1259101745.664776</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2024278671.679484</v>
+        <v>2125036246.927123</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08877198796724381</v>
+        <v>0.0902630167078448</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03800787863782978</v>
+        <v>0.04478495251101603</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>47</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1012139406.507005</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1756693461.142864</v>
+        <v>1680818034.019476</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1178341783264993</v>
+        <v>0.09067311935861669</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02961221855373189</v>
+        <v>0.03000975498122925</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>878346743.5001165</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5078978614.605507</v>
+        <v>5053357928.704795</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1765931185373289</v>
+        <v>0.124347032402616</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0178588733634094</v>
+        <v>0.0225069221707716</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>66</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2539489450.433377</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3906766204.375619</v>
+        <v>2966786548.977281</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1231021806397212</v>
+        <v>0.1190418180813352</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03038724321662205</v>
+        <v>0.03088440524339025</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>52</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1953383148.34979</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2325702826.952526</v>
+        <v>2951905674.285119</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1365270271106296</v>
+        <v>0.1467321594741357</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02333275070597635</v>
+        <v>0.0297512234464194</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>62</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1162851350.527086</v>
       </c>
     </row>
     <row r="100">
@@ -3828,22 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4147866362.151976</v>
+        <v>3278733398.093419</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1340899319270959</v>
+        <v>0.1705430925063931</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02167114247390505</v>
+        <v>0.02248918426834143</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>61</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2073933263.541452</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -3862,22 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3604717079.878626</v>
+        <v>2614349111.683186</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1450298385129954</v>
+        <v>0.1459653623411574</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05641569146475901</v>
+        <v>0.04409152324771067</v>
       </c>
       <c r="H101" t="b">
         <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>79</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1802358708.931652</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_197.xlsx
+++ b/output/fit_clients/fit_round_197.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1658565874.436907</v>
+        <v>2325346300.304239</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07077432000332223</v>
+        <v>0.1135017707064762</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04012932297814357</v>
+        <v>0.03386643194866486</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -514,13 +514,13 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1668924867.214346</v>
+        <v>2035096343.894751</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1759223298682402</v>
+        <v>0.1510386000150936</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03633377860148419</v>
+        <v>0.04436438086651038</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,22 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4756686239.513775</v>
+        <v>3530500587.399515</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1324774045784045</v>
+        <v>0.1058093152559395</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0242611899086862</v>
+        <v>0.03723952716190193</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3548744221.222897</v>
+        <v>2949643086.467497</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06935639246560443</v>
+        <v>0.1029102303972308</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04621884072752801</v>
+        <v>0.03168693092850558</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2099124446.278938</v>
+        <v>2422172966.29423</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1132199217673611</v>
+        <v>0.1335763376035264</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0373316852784867</v>
+        <v>0.04755104019312065</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -626,13 +626,13 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2447734127.742587</v>
+        <v>2074865358.148533</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07802705686467605</v>
+        <v>0.09827191620113557</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0401115236281592</v>
+        <v>0.04310558716653858</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,22 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2655994408.108758</v>
+        <v>3371162635.458444</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2064840375461353</v>
+        <v>0.2154627158234656</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02223440222677363</v>
+        <v>0.02705148884004817</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -682,13 +682,13 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2198937007.76939</v>
+        <v>1743866325.590579</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1730088312877671</v>
+        <v>0.1482954205264112</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03693962111406662</v>
+        <v>0.0329105361464386</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4584269121.165529</v>
+        <v>4764343394.544762</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1662157466749456</v>
+        <v>0.1876126791240496</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04937901634200811</v>
+        <v>0.05027826217265433</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4021696295.825747</v>
+        <v>4107425887.075704</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1769981462175492</v>
+        <v>0.1638468603675458</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03320734283142471</v>
+        <v>0.03646713562725128</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2216534289.37414</v>
+        <v>2477619445.672059</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1203484569102288</v>
+        <v>0.1574483894107936</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04121735843945883</v>
+        <v>0.03915158695569601</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3708075909.339469</v>
+        <v>3478604158.306398</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06835868071585456</v>
+        <v>0.06283017798598371</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02146851144249931</v>
+        <v>0.02683648348015284</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3075969000.921372</v>
+        <v>3527108098.129053</v>
       </c>
       <c r="F14" t="n">
-        <v>0.169341963342859</v>
+        <v>0.1529703727038441</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03581426739541154</v>
+        <v>0.03957865032781217</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1808323846.486408</v>
+        <v>1297040510.247476</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06938268612151262</v>
+        <v>0.06655809742414284</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03887398100949697</v>
+        <v>0.03442198537100553</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -878,13 +878,13 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1869444247.210462</v>
+        <v>2616805102.362415</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1059344415102991</v>
+        <v>0.09306083318354685</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03646256447373046</v>
+        <v>0.04942110951253419</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -906,13 +906,13 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3738488238.622783</v>
+        <v>3496889782.458838</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1326113766017939</v>
+        <v>0.1636301030696985</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04666432387280741</v>
+        <v>0.04966300546438408</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>4004704024.463214</v>
+        <v>3239860638.632911</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1611168628930545</v>
+        <v>0.1145196852114692</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02509918149106331</v>
+        <v>0.02575276090882428</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1359288988.959392</v>
+        <v>1058591114.822873</v>
       </c>
       <c r="F19" t="n">
-        <v>0.155558574783491</v>
+        <v>0.1229686468405822</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02610828553944976</v>
+        <v>0.02408386816508997</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1766585479.303365</v>
+        <v>2302218583.381345</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1370582368463896</v>
+        <v>0.1083670172976493</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03072649643473408</v>
+        <v>0.03189921554805081</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1985725650.519244</v>
+        <v>2583426893.46121</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06473990337635081</v>
+        <v>0.07857192329271948</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03596770172252612</v>
+        <v>0.0373543536247979</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3129884772.931371</v>
+        <v>2512426841.040984</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09595225255037296</v>
+        <v>0.141263132980579</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04852761778399432</v>
+        <v>0.05490059464875317</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1169095549.20234</v>
+        <v>1201993175.542772</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1515344939482988</v>
+        <v>0.1180306911806437</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04466774171575915</v>
+        <v>0.04190977581897644</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3725579734.941143</v>
+        <v>3085029744.598767</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1210173958528405</v>
+        <v>0.09183904606090088</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02956625869569734</v>
+        <v>0.03230182482798753</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>945215217.1680245</v>
+        <v>1396491595.478806</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0816207631326239</v>
+        <v>0.1000661806261025</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02041487819902487</v>
+        <v>0.0235422948379563</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1066169534.677267</v>
+        <v>1041268561.466198</v>
       </c>
       <c r="F26" t="n">
-        <v>0.110790947191588</v>
+        <v>0.09645087676732206</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03059723898276455</v>
+        <v>0.03099336466451065</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4402406796.150299</v>
+        <v>3283401005.11649</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1407238379246879</v>
+        <v>0.1249479132839585</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01905406258110879</v>
+        <v>0.02341901104236414</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3792892325.341863</v>
+        <v>2742472965.667232</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1232179056286964</v>
+        <v>0.1103943619804628</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03836255096745034</v>
+        <v>0.03631434368124203</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5477286968.233865</v>
+        <v>4007459845.105286</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1259432405524289</v>
+        <v>0.1198506146062012</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03275857619807592</v>
+        <v>0.03712248665488219</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1596771963.925055</v>
+        <v>2185843354.829975</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1328064592904771</v>
+        <v>0.08806714914429457</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02708112901622472</v>
+        <v>0.03199996213670381</v>
       </c>
       <c r="H30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1178853463.279537</v>
+        <v>952252927.035334</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0802383905753096</v>
+        <v>0.0891304768678033</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04439827953934044</v>
+        <v>0.03313419277176936</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1303294306.701532</v>
+        <v>1678751429.108819</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1045002675906943</v>
+        <v>0.08886554924045864</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02812458233684625</v>
+        <v>0.03343415225906022</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>3033067518.72013</v>
+        <v>2873232856.823993</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1373319642884954</v>
+        <v>0.1311049780859109</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0610447553135893</v>
+        <v>0.061154122676463</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1050183346.412657</v>
+        <v>1258612495.301617</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1040089977748107</v>
+        <v>0.1067432756835384</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02835137388695859</v>
+        <v>0.02100574115273416</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,22 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1180518097.273579</v>
+        <v>1320747144.019486</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1167220270876784</v>
+        <v>0.09606460860425138</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02814503617946912</v>
+        <v>0.04055789956183062</v>
       </c>
       <c r="H35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1432,22 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2894983690.31848</v>
+        <v>2380673996.944539</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1591352391990123</v>
+        <v>0.1255577145211602</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02177402465997827</v>
+        <v>0.02137997408620688</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2051080819.664123</v>
+        <v>2936046533.784427</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07586830834693219</v>
+        <v>0.0999784329924701</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0386063425223281</v>
+        <v>0.03019779329319244</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1494,13 +1494,13 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1853007703.577214</v>
+        <v>2057808885.472477</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1217163968376457</v>
+        <v>0.1153222822710979</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02698147366212362</v>
+        <v>0.0391037710751276</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1901334980.939524</v>
+        <v>1433301857.319103</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1546027611946033</v>
+        <v>0.1325786807885459</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02266288755058785</v>
+        <v>0.02134365544647227</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,22 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1605805165.19104</v>
+        <v>1733572513.873303</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1348135568565231</v>
+        <v>0.1241481222272566</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03756965411419948</v>
+        <v>0.05560665452753139</v>
       </c>
       <c r="H40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2798522499.475701</v>
+        <v>2154305041.719152</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1454282777339686</v>
+        <v>0.1559148547135121</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03520258621454993</v>
+        <v>0.04079159190104253</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3305824092.370052</v>
+        <v>3186126399.43704</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09727085188174586</v>
+        <v>0.08870874008133584</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03245013048409209</v>
+        <v>0.03836144298844842</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2981322228.834282</v>
+        <v>2457602995.969056</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1984133056797852</v>
+        <v>0.1898356485190873</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02547255380061992</v>
+        <v>0.02550318996584072</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1978907581.613543</v>
+        <v>2071905234.413246</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07817863093888805</v>
+        <v>0.07654598684719444</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02737068013822691</v>
+        <v>0.02368918431231643</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2539141751.711191</v>
+        <v>2035888774.663729</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1176916543155351</v>
+        <v>0.1762796572025336</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04770375604693593</v>
+        <v>0.04266038396376561</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4516652202.152647</v>
+        <v>3677542388.906738</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1255688488847392</v>
+        <v>0.1622885665241992</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04341571012887343</v>
+        <v>0.04218834883158314</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4671386589.75686</v>
+        <v>4222012697.757264</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1691816034723781</v>
+        <v>0.202529195848854</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05634310107786555</v>
+        <v>0.04297685239251344</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1774,13 +1774,13 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4726492199.251318</v>
+        <v>3646061345.711206</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0964812640226452</v>
+        <v>0.1030373792297683</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03727880176643491</v>
+        <v>0.0297283409338881</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1802,13 +1802,13 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1289862671.476957</v>
+        <v>1589848856.040761</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1686748311660847</v>
+        <v>0.1365177568392152</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03888714978127093</v>
+        <v>0.04037775916780555</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1830,13 +1830,13 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3507415250.567891</v>
+        <v>4086128240.382608</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1786414019766173</v>
+        <v>0.1380015423307866</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0479973306410367</v>
+        <v>0.04878645868166046</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1152542978.848938</v>
+        <v>1019789401.808144</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1951302128860826</v>
+        <v>0.1809154697950197</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03377966437050321</v>
+        <v>0.05100741115320121</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4743557796.583847</v>
+        <v>3713270998.529706</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09421571978915375</v>
+        <v>0.1252873468161712</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05662194454297867</v>
+        <v>0.04793526154721373</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,22 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3110656755.451188</v>
+        <v>3493564108.848447</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1788768666893809</v>
+        <v>0.1682377161380818</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03422185865530965</v>
+        <v>0.02719284082806705</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4822377042.358898</v>
+        <v>4595084135.78265</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1107418527450397</v>
+        <v>0.1607413062319449</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04379934490844339</v>
+        <v>0.04868194962405854</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4769656622.329022</v>
+        <v>4298652362.690678</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1894084290754733</v>
+        <v>0.145030094213018</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02466842869838603</v>
+        <v>0.03057130196620894</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1998,13 +1998,13 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1250475829.854301</v>
+        <v>1730707095.953024</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1438256909368842</v>
+        <v>0.1596880790823116</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04391420768821098</v>
+        <v>0.05773994740616571</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4048097629.705447</v>
+        <v>3590598156.082588</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1238740621516223</v>
+        <v>0.1668777071370728</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02196337433992087</v>
+        <v>0.02261328730269959</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1703989280.280237</v>
+        <v>1872608200.403009</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1743071334352881</v>
+        <v>0.1875447885109462</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02417054116240438</v>
+        <v>0.0382542483308001</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4289457407.396123</v>
+        <v>4370428731.902218</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1224317716055038</v>
+        <v>0.1007525945730495</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03259628472792776</v>
+        <v>0.04991714223267431</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2654436042.732876</v>
+        <v>2386535318.457473</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1471390764489428</v>
+        <v>0.1717525178922311</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02937613008073431</v>
+        <v>0.02618424647011879</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2138,13 +2138,13 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2303796407.054703</v>
+        <v>2662782032.293804</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1657055390055152</v>
+        <v>0.1238075086647078</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02083090781835993</v>
+        <v>0.03186822948254792</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,22 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1750244093.482289</v>
+        <v>1287265141.649881</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1858524431755059</v>
+        <v>0.1595367140818291</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04288926139647714</v>
+        <v>0.03792164019188498</v>
       </c>
       <c r="H62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2188,19 +2188,19 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5210527772.731955</v>
+        <v>4548214152.221986</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1058095149959815</v>
+        <v>0.1060628816393113</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03993199164158355</v>
+        <v>0.03715420262327441</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5188846062.226937</v>
+        <v>3504652390.574592</v>
       </c>
       <c r="F64" t="n">
-        <v>0.170241434342676</v>
+        <v>0.1307172015922781</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02262496698474077</v>
+        <v>0.02285777887325089</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4062001910.88541</v>
+        <v>4675908952.990465</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1354345095470829</v>
+        <v>0.1511946578544885</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02006477119702001</v>
+        <v>0.02212275772234557</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,19 +2272,19 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3762233501.747986</v>
+        <v>4776650876.535491</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1410594977647177</v>
+        <v>0.1592314011261405</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04238385115424605</v>
+        <v>0.04918777945887186</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2640139393.233165</v>
+        <v>2543484266.135142</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08306100834585238</v>
+        <v>0.09349792817121091</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03948605266359726</v>
+        <v>0.04286038248133506</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4258071782.398398</v>
+        <v>3975174401.189904</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1436707072140098</v>
+        <v>0.1388811646764638</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05123334846747465</v>
+        <v>0.03288929108425747</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2365697468.111772</v>
+        <v>2275123608.714565</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1669427285207605</v>
+        <v>0.1196719035736674</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04426181729856962</v>
+        <v>0.05438179556937696</v>
       </c>
       <c r="H69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2390,13 +2390,13 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2452292579.45593</v>
+        <v>2682217728.074373</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07461481264218438</v>
+        <v>0.09117062375709553</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04271014558537083</v>
+        <v>0.04053783915116862</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,19 +2412,19 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5464930911.42838</v>
+        <v>3532212338.736413</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1642365639844863</v>
+        <v>0.147387249608726</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02938946792663085</v>
+        <v>0.03092548077534913</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1941542852.657009</v>
+        <v>1376116690.873252</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0886409312927489</v>
+        <v>0.09551628780890591</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03844706692044034</v>
+        <v>0.05183193364595854</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3385618046.670147</v>
+        <v>3524300257.346533</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0712092501195163</v>
+        <v>0.08076382439687806</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04027391771422746</v>
+        <v>0.04269978867462666</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2502,13 +2502,13 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2840885350.600993</v>
+        <v>2723021968.609598</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1456315646551803</v>
+        <v>0.1353089315473742</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02509835861837255</v>
+        <v>0.02655686776777408</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2457933878.165318</v>
+        <v>1519182442.422731</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1427717025848088</v>
+        <v>0.1234503091149414</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03317064337448632</v>
+        <v>0.03191499083400497</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2558,16 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4846415545.25995</v>
+        <v>5316960355.973666</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1163909842118976</v>
+        <v>0.1187565142377565</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02877086054684051</v>
+        <v>0.02412578193234478</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2586,13 +2586,13 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1633714416.682183</v>
+        <v>1729386718.15757</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1679708276877046</v>
+        <v>0.183874514959447</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02643922187792232</v>
+        <v>0.0258524811009763</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3059960140.430999</v>
+        <v>4304642228.968148</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1030127822493039</v>
+        <v>0.1261774185041225</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05665288273387646</v>
+        <v>0.0370438788603001</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2642,13 +2642,13 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1704158732.27202</v>
+        <v>1899713940.645972</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1067955897969064</v>
+        <v>0.1735967116393381</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02933573991009611</v>
+        <v>0.03345506944959231</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2670,16 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5013319498.354838</v>
+        <v>4067190992.517412</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0736965594102381</v>
+        <v>0.08549618000991696</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03272419421123</v>
+        <v>0.02824104374133592</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2698,16 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4606437112.918895</v>
+        <v>4673732372.330792</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1194377728228444</v>
+        <v>0.1167773187286568</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03124642473161733</v>
+        <v>0.02117707568370695</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2726,16 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5141862187.346349</v>
+        <v>5250753398.71897</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1747077531594808</v>
+        <v>0.1752663893643502</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02878065184765971</v>
+        <v>0.0287680934074891</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2754,13 +2754,13 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2345517828.766922</v>
+        <v>2279605327.686406</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1454463400855572</v>
+        <v>0.09875927022427795</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03016623697978927</v>
+        <v>0.03380955292454571</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,22 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2540762170.007446</v>
+        <v>1585979689.19088</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1113440447851157</v>
+        <v>0.09400299543664008</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03977111205033033</v>
+        <v>0.04524622847817865</v>
       </c>
       <c r="H84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2352358200.088962</v>
+        <v>2261500243.315248</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1381798595736964</v>
+        <v>0.1234273219747396</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04771774905328476</v>
+        <v>0.05286120657119025</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2838,13 +2838,13 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1777706873.030601</v>
+        <v>2104907895.10572</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1122657370124259</v>
+        <v>0.1611912733410549</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01907600058352134</v>
+        <v>0.02149480112273178</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2866,13 +2866,13 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1464712040.414916</v>
+        <v>1415600932.400811</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1821680832095014</v>
+        <v>0.1742961726219988</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03851766147149775</v>
+        <v>0.03852049690946883</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2882152469.357036</v>
+        <v>3520816542.541767</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1367331165648254</v>
+        <v>0.1232712743476939</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02842971707788202</v>
+        <v>0.02816165104794514</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,22 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2519137303.441699</v>
+        <v>2736359228.005087</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1346154551660468</v>
+        <v>0.1338746743812206</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03287560926914713</v>
+        <v>0.03214602442806904</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2944,22 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1487443434.396755</v>
+        <v>1504643734.682329</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1153684835367167</v>
+        <v>0.09482987970490246</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03752802135654164</v>
+        <v>0.04794809658076986</v>
       </c>
       <c r="H90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1428787760.867168</v>
+        <v>1633471828.471564</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1721961732785582</v>
+        <v>0.1869496086464111</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04223292568240963</v>
+        <v>0.04123810218334786</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2484165795.454945</v>
+        <v>2637950145.498766</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08451850435150439</v>
+        <v>0.109339747999127</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03774121613803367</v>
+        <v>0.03066410169731938</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4769509423.816564</v>
+        <v>4651719808.253369</v>
       </c>
       <c r="F93" t="n">
-        <v>0.135663094812129</v>
+        <v>0.09568412157608223</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0440819230316528</v>
+        <v>0.05432381213100784</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3062,13 +3062,13 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2495092428.612424</v>
+        <v>1612927391.779459</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1590292340406715</v>
+        <v>0.1592752136109927</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03882181280485241</v>
+        <v>0.03025930142045467</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3090,13 +3090,13 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2125036246.927123</v>
+        <v>2322826331.704381</v>
       </c>
       <c r="F95" t="n">
-        <v>0.0902630167078448</v>
+        <v>0.1275636177783383</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04478495251101603</v>
+        <v>0.03514561446241791</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1680818034.019476</v>
+        <v>2089722600.732898</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09067311935861669</v>
+        <v>0.1298938883112482</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03000975498122925</v>
+        <v>0.04345022926517547</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5053357928.704795</v>
+        <v>3456587908.150336</v>
       </c>
       <c r="F97" t="n">
-        <v>0.124347032402616</v>
+        <v>0.1467693252719128</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0225069221707716</v>
+        <v>0.02429147008035036</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2966786548.977281</v>
+        <v>3872406619.093937</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1190418180813352</v>
+        <v>0.08582607441380441</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03088440524339025</v>
+        <v>0.02522601372481204</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2951905674.285119</v>
+        <v>3440962046.808437</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1467321594741357</v>
+        <v>0.1336959246886899</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0297512234464194</v>
+        <v>0.03276552829445881</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,22 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3278733398.093419</v>
+        <v>3454534079.44567</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1705430925063931</v>
+        <v>0.1095041943170295</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02248918426834143</v>
+        <v>0.02090042250023237</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3252,22 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2614349111.683186</v>
+        <v>2311042610.746645</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1459653623411574</v>
+        <v>0.1480050721377698</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04409152324771067</v>
+        <v>0.04481209525416483</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_197.xlsx
+++ b/output/fit_clients/fit_round_197.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2325346300.304239</v>
+        <v>1801433909.449289</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1135017707064762</v>
+        <v>0.09348229937870281</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03386643194866486</v>
+        <v>0.04329427000216581</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2035096343.894751</v>
+        <v>1690297666.53376</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1510386000150936</v>
+        <v>0.1781263132471297</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04436438086651038</v>
+        <v>0.03893542798433868</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3530500587.399515</v>
+        <v>4806763734.902812</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1058093152559395</v>
+        <v>0.1209752979459624</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03723952716190193</v>
+        <v>0.02345227030905128</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>108</v>
+      </c>
+      <c r="J4" t="n">
+        <v>197</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -570,17 +606,24 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2949643086.467497</v>
+        <v>3332338696.62864</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1029102303972308</v>
+        <v>0.09108216314834226</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03168693092850558</v>
+        <v>0.03806036762892895</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>82</v>
+      </c>
+      <c r="J5" t="n">
+        <v>195</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +635,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2422172966.29423</v>
+        <v>2103747077.467521</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1335763376035264</v>
+        <v>0.1268520387631168</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04755104019312065</v>
+        <v>0.04325817179671648</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +670,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2074865358.148533</v>
+        <v>2781951452.538078</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09827191620113557</v>
+        <v>0.06905538194973457</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04310558716653858</v>
+        <v>0.04369540798250753</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -654,16 +711,25 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3371162635.458444</v>
+        <v>3713938370.420259</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2154627158234656</v>
+        <v>0.1579192294574804</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02705148884004817</v>
+        <v>0.02958356529957564</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>56</v>
+      </c>
+      <c r="J8" t="n">
+        <v>196</v>
+      </c>
+      <c r="K8" t="n">
+        <v>115.7882134481259</v>
       </c>
     </row>
     <row r="9">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1743866325.590579</v>
+        <v>2160515109.495994</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1482954205264112</v>
+        <v>0.1880141505755038</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0329105361464386</v>
+        <v>0.02312074165376489</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -710,16 +783,25 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4764343394.544762</v>
+        <v>4413971073.622354</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1876126791240496</v>
+        <v>0.1460795459756885</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05027826217265433</v>
+        <v>0.04921791067490711</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>180</v>
+      </c>
+      <c r="J10" t="n">
+        <v>197</v>
+      </c>
+      <c r="K10" t="n">
+        <v>131.6742528171745</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +814,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4107425887.075704</v>
+        <v>2894338204.521681</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1638468603675458</v>
+        <v>0.1433139670765682</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03646713562725128</v>
+        <v>0.04791268707223263</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>80</v>
+      </c>
+      <c r="J11" t="n">
+        <v>195</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +849,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2477619445.672059</v>
+        <v>3241675879.577689</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1574483894107936</v>
+        <v>0.1856297721368833</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03915158695569601</v>
+        <v>0.03682555996401043</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -794,16 +890,25 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3478604158.306398</v>
+        <v>4278043371.18224</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06283017798598371</v>
+        <v>0.0851033692948389</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02683648348015284</v>
+        <v>0.02703532727845494</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>99</v>
+      </c>
+      <c r="J13" t="n">
+        <v>196</v>
+      </c>
+      <c r="K13" t="n">
+        <v>120.2361762729411</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +921,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3527108098.129053</v>
+        <v>3843029092.25602</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1529703727038441</v>
+        <v>0.1707914030550551</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03957865032781217</v>
+        <v>0.03293322043359705</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>37</v>
+      </c>
+      <c r="J14" t="n">
+        <v>197</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +956,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1297040510.247476</v>
+        <v>1295435589.033908</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06655809742414284</v>
+        <v>0.09777830420449581</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03442198537100553</v>
+        <v>0.03731680334258611</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +991,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2616805102.362415</v>
+        <v>1767921652.948298</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09306083318354685</v>
+        <v>0.07962220254551501</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04942110951253419</v>
+        <v>0.05024155431937518</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1026,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3496889782.458838</v>
+        <v>4737076547.109168</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1636301030696985</v>
+        <v>0.1127073742903967</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04966300546438408</v>
+        <v>0.03588066262398738</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>94</v>
+      </c>
+      <c r="J17" t="n">
+        <v>197</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -934,16 +1067,25 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3239860638.632911</v>
+        <v>2746622557.62189</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1145196852114692</v>
+        <v>0.1294985976798519</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02575276090882428</v>
+        <v>0.02083864154553696</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>50</v>
+      </c>
+      <c r="J18" t="n">
+        <v>196</v>
+      </c>
+      <c r="K18" t="n">
+        <v>62.74120170484417</v>
       </c>
     </row>
     <row r="19">
@@ -956,23 +1098,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1058591114.822873</v>
+        <v>972332940.9135855</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1229686468405822</v>
+        <v>0.1208842541654109</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02408386816508997</v>
+        <v>0.02155303150597596</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1139,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2302218583.381345</v>
+        <v>2479040183.32393</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1083670172976493</v>
+        <v>0.1330240557185105</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03189921554805081</v>
+        <v>0.02518616188269947</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1168,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2583426893.46121</v>
+        <v>1873694508.816059</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07857192329271948</v>
+        <v>0.07990047024483453</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0373543536247979</v>
+        <v>0.03207098412973436</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1203,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2512426841.040984</v>
+        <v>2489403719.145328</v>
       </c>
       <c r="F22" t="n">
-        <v>0.141263132980579</v>
+        <v>0.1147257295391339</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05490059464875317</v>
+        <v>0.03858074534069005</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>50</v>
+      </c>
+      <c r="J22" t="n">
+        <v>195</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1238,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1201993175.542772</v>
+        <v>1061514398.707536</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1180306911806437</v>
+        <v>0.1501763482446231</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04190977581897644</v>
+        <v>0.04449707320713053</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1273,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3085029744.598767</v>
+        <v>4065799163.774719</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09183904606090088</v>
+        <v>0.101568545171033</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03230182482798753</v>
+        <v>0.02290127477706499</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>60</v>
+      </c>
+      <c r="J24" t="n">
+        <v>197</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1130,17 +1314,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1396491595.478806</v>
+        <v>1125945905.425361</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1000661806261025</v>
+        <v>0.09639441954229369</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0235422948379563</v>
+        <v>0.01861272129338943</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1158,17 +1349,24 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1041268561.466198</v>
+        <v>1422452835.481031</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09645087676732206</v>
+        <v>0.1006086554109306</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03099336466451065</v>
+        <v>0.03384775626100631</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1378,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3283401005.11649</v>
+        <v>4386404618.357759</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1249479132839585</v>
+        <v>0.1345861660725514</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02341901104236414</v>
+        <v>0.01754383758491011</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>79</v>
+      </c>
+      <c r="J27" t="n">
+        <v>196</v>
+      </c>
+      <c r="K27" t="n">
+        <v>102.5395417582451</v>
       </c>
     </row>
     <row r="28">
@@ -1208,23 +1415,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2742472965.667232</v>
+        <v>3792808479.638212</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1103943619804628</v>
+        <v>0.1017193861941572</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03631434368124203</v>
+        <v>0.04190772943716645</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>40</v>
+      </c>
+      <c r="J28" t="n">
+        <v>197</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1450,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4007459845.105286</v>
+        <v>3632729544.392526</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1198506146062012</v>
+        <v>0.1369465101087073</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03712248665488219</v>
+        <v>0.04586820266887934</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>186</v>
+      </c>
+      <c r="J29" t="n">
+        <v>197</v>
+      </c>
+      <c r="K29" t="n">
+        <v>124.9640878308895</v>
       </c>
     </row>
     <row r="30">
@@ -1270,17 +1493,24 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2185843354.829975</v>
+        <v>1807970944.479224</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08806714914429457</v>
+        <v>0.08924247749861587</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03199996213670381</v>
+        <v>0.03559073211482863</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1522,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>952252927.035334</v>
+        <v>1471064797.020576</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0891304768678033</v>
+        <v>0.08651814698741836</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03313419277176936</v>
+        <v>0.04387054737715146</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1557,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1678751429.108819</v>
+        <v>1224506616.302155</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08886554924045864</v>
+        <v>0.1159922550580176</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03343415225906022</v>
+        <v>0.03087555712771007</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1592,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2873232856.823993</v>
+        <v>2676618480.664311</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1311049780859109</v>
+        <v>0.1263475087718043</v>
       </c>
       <c r="G33" t="n">
-        <v>0.061154122676463</v>
+        <v>0.05646562317831786</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1627,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1258612495.301617</v>
+        <v>955400900.2829685</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1067432756835384</v>
+        <v>0.08356553470370023</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02100574115273416</v>
+        <v>0.02789181985482325</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1662,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1320747144.019486</v>
+        <v>934183306.6827242</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09606460860425138</v>
+        <v>0.07762728177996731</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04055789956183062</v>
+        <v>0.03548918696531726</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1697,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2380673996.944539</v>
+        <v>2380359808.270323</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1255577145211602</v>
+        <v>0.1313305833060956</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02137997408620688</v>
+        <v>0.02270073873000273</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1732,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2936046533.784427</v>
+        <v>2324709595.572871</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0999784329924701</v>
+        <v>0.1084066571986271</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03019779329319244</v>
+        <v>0.02651245689169665</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1773,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2057808885.472477</v>
+        <v>1581322137.265055</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1153222822710979</v>
+        <v>0.1077348313932777</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0391037710751276</v>
+        <v>0.02441558087806072</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1802,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1433301857.319103</v>
+        <v>1486255925.01333</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1325786807885459</v>
+        <v>0.1558072866983993</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02134365544647227</v>
+        <v>0.02541935425973894</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1837,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1733572513.873303</v>
+        <v>1157411385.029586</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1241481222272566</v>
+        <v>0.1022497084743791</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05560665452753139</v>
+        <v>0.04004097924245769</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1872,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2154305041.719152</v>
+        <v>2097486891.03813</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1559148547135121</v>
+        <v>0.1221503544311551</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04079159190104253</v>
+        <v>0.04405454983215693</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1907,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3186126399.43704</v>
+        <v>4105041265.594574</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08870874008133584</v>
+        <v>0.1135716143020264</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03836144298844842</v>
+        <v>0.0292117089792895</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>77</v>
+      </c>
+      <c r="J42" t="n">
+        <v>197</v>
+      </c>
+      <c r="K42" t="n">
+        <v>124.1076453966243</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1944,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2457602995.969056</v>
+        <v>3020939443.596197</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1898356485190873</v>
+        <v>0.1463183314420953</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02550318996584072</v>
+        <v>0.02477438173753607</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1979,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2071905234.413246</v>
+        <v>2100241920.17415</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07654598684719444</v>
+        <v>0.09809426484379163</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02368918431231643</v>
+        <v>0.02866386036073265</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2014,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2035888774.663729</v>
+        <v>1649406598.004003</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1762796572025336</v>
+        <v>0.1892191606048507</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04266038396376561</v>
+        <v>0.03839975738700003</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2049,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3677542388.906738</v>
+        <v>4331004073.604541</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1622885665241992</v>
+        <v>0.1148036329437989</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04218834883158314</v>
+        <v>0.03945385034744257</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>112</v>
+      </c>
+      <c r="J46" t="n">
+        <v>197</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,22 +2084,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4222012697.757264</v>
+        <v>3790851796.938362</v>
       </c>
       <c r="F47" t="n">
-        <v>0.202529195848854</v>
+        <v>0.1547441139987771</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04297685239251344</v>
+        <v>0.04908741119224758</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>88</v>
+      </c>
+      <c r="J47" t="n">
+        <v>196</v>
+      </c>
+      <c r="K47" t="n">
+        <v>98.45180067994721</v>
       </c>
     </row>
     <row r="48">
@@ -1768,23 +2121,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3646061345.711206</v>
+        <v>3493935956.490615</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1030373792297683</v>
+        <v>0.08720228927277199</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0297283409338881</v>
+        <v>0.02933417312724175</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>94</v>
+      </c>
+      <c r="J48" t="n">
+        <v>197</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2156,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1589848856.040761</v>
+        <v>1526491305.819861</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1365177568392152</v>
+        <v>0.1484688225313072</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04037775916780555</v>
+        <v>0.03530858490934716</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2191,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4086128240.382608</v>
+        <v>3225030049.993297</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1380015423307866</v>
+        <v>0.1452869798418774</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04878645868166046</v>
+        <v>0.05007003332464973</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>62</v>
+      </c>
+      <c r="J50" t="n">
+        <v>193</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2226,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1019789401.808144</v>
+        <v>960351832.7610961</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1809154697950197</v>
+        <v>0.1717648766382383</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05100741115320121</v>
+        <v>0.04312245831470099</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2261,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3713270998.529706</v>
+        <v>5198493045.543447</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1252873468161712</v>
+        <v>0.1347654758809012</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04793526154721373</v>
+        <v>0.04625592909869612</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>136</v>
+      </c>
+      <c r="J52" t="n">
+        <v>197</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2296,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3493564108.848447</v>
+        <v>2336280843.179466</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1682377161380818</v>
+        <v>0.1441889296631577</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02719284082806705</v>
+        <v>0.03483909007742002</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>26</v>
+      </c>
+      <c r="J53" t="n">
+        <v>185</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2331,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4595084135.78265</v>
+        <v>4946284613.199547</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1607413062319449</v>
+        <v>0.1257425238575898</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04868194962405854</v>
+        <v>0.04352180438874199</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>101</v>
+      </c>
+      <c r="J54" t="n">
+        <v>196</v>
+      </c>
+      <c r="K54" t="n">
+        <v>123.6775951759644</v>
       </c>
     </row>
     <row r="55">
@@ -1970,17 +2374,24 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4298652362.690678</v>
+        <v>3354697914.098024</v>
       </c>
       <c r="F55" t="n">
-        <v>0.145030094213018</v>
+        <v>0.2043722933937286</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03057130196620894</v>
+        <v>0.02937677334122845</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>88</v>
+      </c>
+      <c r="J55" t="n">
+        <v>195</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2403,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1730707095.953024</v>
+        <v>1183066877.729292</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1596880790823116</v>
+        <v>0.1417797945148082</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05773994740616571</v>
+        <v>0.04571413889067753</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2438,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3590598156.082588</v>
+        <v>2847243448.673644</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1668777071370728</v>
+        <v>0.1582127608888622</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02261328730269959</v>
+        <v>0.02735036810583004</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>79</v>
+      </c>
+      <c r="J57" t="n">
+        <v>196</v>
+      </c>
+      <c r="K57" t="n">
+        <v>66.54762320718031</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2475,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1872608200.403009</v>
+        <v>1637837492.240789</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1875447885109462</v>
+        <v>0.195093245986771</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0382542483308001</v>
+        <v>0.03167084854660476</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2510,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4370428731.902218</v>
+        <v>3503370853.569069</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1007525945730495</v>
+        <v>0.120738549990584</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04991714223267431</v>
+        <v>0.04260749504434497</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>95</v>
+      </c>
+      <c r="J59" t="n">
+        <v>196</v>
+      </c>
+      <c r="K59" t="n">
+        <v>94.66472359645086</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2547,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2386535318.457473</v>
+        <v>3115659631.425717</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1717525178922311</v>
+        <v>0.1363017406587277</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02618424647011879</v>
+        <v>0.021155086763249</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>28</v>
+      </c>
+      <c r="J60" t="n">
+        <v>189</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2582,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2662782032.293804</v>
+        <v>3351992113.934753</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1238075086647078</v>
+        <v>0.1165087525858994</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03186822948254792</v>
+        <v>0.02060149262157554</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>6</v>
+      </c>
+      <c r="J61" t="n">
+        <v>188</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2617,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1287265141.649881</v>
+        <v>1455002257.629748</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1595367140818291</v>
+        <v>0.1342108320550903</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03792164019188498</v>
+        <v>0.04269686983442847</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2652,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4548214152.221986</v>
+        <v>4992399818.905103</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1060628816393113</v>
+        <v>0.09481597043816249</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03715420262327441</v>
+        <v>0.03379004211322335</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>96</v>
+      </c>
+      <c r="J63" t="n">
+        <v>197</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,22 +2687,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3504652390.574592</v>
+        <v>4805974674.216992</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1307172015922781</v>
+        <v>0.1574413881360817</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02285777887325089</v>
+        <v>0.02847433404124321</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>97</v>
+      </c>
+      <c r="J64" t="n">
+        <v>196</v>
+      </c>
+      <c r="K64" t="n">
+        <v>113.5315183391321</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2724,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4675908952.990465</v>
+        <v>3773510609.393772</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1511946578544885</v>
+        <v>0.1612072229126575</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02212275772234557</v>
+        <v>0.02216605567432128</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>160</v>
+      </c>
+      <c r="J65" t="n">
+        <v>196</v>
+      </c>
+      <c r="K65" t="n">
+        <v>119.7591357370926</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2761,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4776650876.535491</v>
+        <v>4890046402.917955</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1592314011261405</v>
+        <v>0.1418639701595175</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04918777945887186</v>
+        <v>0.03385836593231754</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>97</v>
+      </c>
+      <c r="J66" t="n">
+        <v>196</v>
+      </c>
+      <c r="K66" t="n">
+        <v>109.4519375574568</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2798,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2543484266.135142</v>
+        <v>2833515854.000839</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09349792817121091</v>
+        <v>0.06819700113524357</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04286038248133506</v>
+        <v>0.03377091708360287</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>2</v>
+      </c>
+      <c r="J67" t="n">
+        <v>188</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2334,17 +2839,24 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3975174401.189904</v>
+        <v>3693722631.406656</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1388811646764638</v>
+        <v>0.09996169715837717</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03288929108425747</v>
+        <v>0.03590746598977276</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>99</v>
+      </c>
+      <c r="J68" t="n">
+        <v>197</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2868,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2275123608.714565</v>
+        <v>1930505708.714093</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1196719035736674</v>
+        <v>0.1628500071430153</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05438179556937696</v>
+        <v>0.03658071238623736</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,22 +2903,31 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2682217728.074373</v>
+        <v>2276259952.731917</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09117062375709553</v>
+        <v>0.06320623234558523</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04053783915116862</v>
+        <v>0.04962667034226911</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>29</v>
+      </c>
+      <c r="J70" t="n">
+        <v>196</v>
+      </c>
+      <c r="K70" t="n">
+        <v>39.87207863887696</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2940,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3532212338.736413</v>
+        <v>5216285196.666169</v>
       </c>
       <c r="F71" t="n">
-        <v>0.147387249608726</v>
+        <v>0.1704867405966609</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03092548077534913</v>
+        <v>0.0243967248362532</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>152</v>
+      </c>
+      <c r="J71" t="n">
+        <v>196</v>
+      </c>
+      <c r="K71" t="n">
+        <v>122.9807331265799</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2977,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1376116690.873252</v>
+        <v>2006399958.780438</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09551628780890591</v>
+        <v>0.09669350710841537</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05183193364595854</v>
+        <v>0.041121137813341</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2474,17 +3018,24 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3524300257.346533</v>
+        <v>3256993383.078743</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08076382439687806</v>
+        <v>0.08318619768297067</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04269978867462666</v>
+        <v>0.04759657797336148</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>11</v>
+      </c>
+      <c r="J73" t="n">
+        <v>185</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,22 +3047,31 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2723021968.609598</v>
+        <v>3810185083.187046</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1353089315473742</v>
+        <v>0.1823378405365134</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02655686776777408</v>
+        <v>0.02715593160381033</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>56</v>
+      </c>
+      <c r="J74" t="n">
+        <v>197</v>
+      </c>
+      <c r="K74" t="n">
+        <v>126.7808424152672</v>
       </c>
     </row>
     <row r="75">
@@ -2524,23 +3084,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1519182442.422731</v>
+        <v>1680348878.327635</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1234503091149414</v>
+        <v>0.1077050437164149</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03191499083400497</v>
+        <v>0.02397223516751288</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2558,16 +3125,25 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5316960355.973666</v>
+        <v>4123222013.322846</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1187565142377565</v>
+        <v>0.1068620250687269</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02412578193234478</v>
+        <v>0.03132404475750937</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>90</v>
+      </c>
+      <c r="J76" t="n">
+        <v>196</v>
+      </c>
+      <c r="K76" t="n">
+        <v>104.0684391932377</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3156,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1729386718.15757</v>
+        <v>1556113489.664141</v>
       </c>
       <c r="F77" t="n">
-        <v>0.183874514959447</v>
+        <v>0.160968358698609</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0258524811009763</v>
+        <v>0.03151997379611692</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3191,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4304642228.968148</v>
+        <v>3013111896.933422</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1261774185041225</v>
+        <v>0.1218561385505419</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0370438788603001</v>
+        <v>0.05383840500061589</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>99</v>
+      </c>
+      <c r="J78" t="n">
+        <v>195</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2642,17 +3232,24 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1899713940.645972</v>
+        <v>1767315308.07309</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1735967116393381</v>
+        <v>0.1736426488446546</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03345506944959231</v>
+        <v>0.02691561109893778</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3261,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4067190992.517412</v>
+        <v>4955422230.625223</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08549618000991696</v>
+        <v>0.09437617438851591</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02824104374133592</v>
+        <v>0.0299041221882638</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>96</v>
+      </c>
+      <c r="J80" t="n">
+        <v>197</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,23 +3296,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4673732372.330792</v>
+        <v>3645206746.480287</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1167773187286568</v>
+        <v>0.1297854038308272</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02117707568370695</v>
+        <v>0.03283660783872461</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>90</v>
+      </c>
+      <c r="J81" t="n">
+        <v>197</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3331,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5250753398.71897</v>
+        <v>4812842467.229897</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1752663893643502</v>
+        <v>0.1400283136331891</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0287680934074891</v>
+        <v>0.02211759808536463</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>145</v>
+      </c>
+      <c r="J82" t="n">
+        <v>197</v>
+      </c>
+      <c r="K82" t="n">
+        <v>128.8855159735308</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3368,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2279605327.686406</v>
+        <v>1665672738.506153</v>
       </c>
       <c r="F83" t="n">
-        <v>0.09875927022427795</v>
+        <v>0.143949642374516</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03380955292454571</v>
+        <v>0.03816416389360993</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3403,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1585979689.19088</v>
+        <v>2528063052.738416</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09400299543664008</v>
+        <v>0.08825404123286475</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04524622847817865</v>
+        <v>0.04085432130515216</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,17 +3444,24 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2261500243.315248</v>
+        <v>3594924760.344993</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1234273219747396</v>
+        <v>0.1327706662768648</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05286120657119025</v>
+        <v>0.04130227768778753</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>27</v>
+      </c>
+      <c r="J85" t="n">
+        <v>197</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3473,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2104907895.10572</v>
+        <v>2096655052.414438</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1611912733410549</v>
+        <v>0.1211859767083962</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02149480112273178</v>
+        <v>0.02051647201698541</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3508,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1415600932.400811</v>
+        <v>1050611715.859831</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1742961726219988</v>
+        <v>0.1665657885142291</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03852049690946883</v>
+        <v>0.03174850876609291</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2894,17 +3549,24 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3520816542.541767</v>
+        <v>2997318323.643363</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1232712743476939</v>
+        <v>0.150615067714775</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02816165104794514</v>
+        <v>0.0316213475676104</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>28</v>
+      </c>
+      <c r="J88" t="n">
+        <v>192</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2922,17 +3584,24 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2736359228.005087</v>
+        <v>3291823958.762402</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1338746743812206</v>
+        <v>0.1542311625896814</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03214602442806904</v>
+        <v>0.03467746497949693</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>14</v>
+      </c>
+      <c r="J89" t="n">
+        <v>190</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3613,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1504643734.682329</v>
+        <v>1492474203.440377</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09482987970490246</v>
+        <v>0.1201111736773642</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04794809658076986</v>
+        <v>0.04873143801692207</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3648,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1633471828.471564</v>
+        <v>1366669427.714634</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1869496086464111</v>
+        <v>0.1938070281076925</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04123810218334786</v>
+        <v>0.05160701535580814</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3006,17 +3689,24 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2637950145.498766</v>
+        <v>2803565456.377586</v>
       </c>
       <c r="F92" t="n">
-        <v>0.109339747999127</v>
+        <v>0.1021609735990369</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03066410169731938</v>
+        <v>0.03798976660672728</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3718,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4651719808.253369</v>
+        <v>3278719051.107445</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09568412157608223</v>
+        <v>0.09463960350732679</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05432381213100784</v>
+        <v>0.04346723321109864</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>89</v>
+      </c>
+      <c r="J93" t="n">
+        <v>196</v>
+      </c>
+      <c r="K93" t="n">
+        <v>85.20659747051404</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3755,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1612927391.779459</v>
+        <v>2073255425.282834</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1592752136109927</v>
+        <v>0.1651028725280655</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03025930142045467</v>
+        <v>0.03847160924757347</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3790,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2322826331.704381</v>
+        <v>2236179543.987309</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1275636177783383</v>
+        <v>0.1172964298439924</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03514561446241791</v>
+        <v>0.03206183073621184</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3825,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2089722600.732898</v>
+        <v>1473687544.89222</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1298938883112482</v>
+        <v>0.1409883307121912</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04345022926517547</v>
+        <v>0.04021720479438731</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3860,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3456587908.150336</v>
+        <v>3514549213.453073</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1467693252719128</v>
+        <v>0.1414120982684824</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02429147008035036</v>
+        <v>0.02883462202937555</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>95</v>
+      </c>
+      <c r="J97" t="n">
+        <v>197</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,23 +3895,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3872406619.093937</v>
+        <v>3374920150.067231</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08582607441380441</v>
+        <v>0.08534030751208112</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02522601372481204</v>
+        <v>0.02524548706095174</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>48</v>
+      </c>
+      <c r="J98" t="n">
+        <v>197</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3440962046.808437</v>
+        <v>2084790860.78404</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1336959246886899</v>
+        <v>0.09984108381898373</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03276552829445881</v>
+        <v>0.02858056794978187</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>2</v>
+      </c>
+      <c r="J99" t="n">
+        <v>135</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3454534079.44567</v>
+        <v>3181578704.780913</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1095041943170295</v>
+        <v>0.1149587330475846</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02090042250023237</v>
+        <v>0.02204428731807722</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
       </c>
+      <c r="I100" t="n">
+        <v>81</v>
+      </c>
+      <c r="J100" t="n">
+        <v>194</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3258,17 +4006,24 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2311042610.746645</v>
+        <v>3092560580.566906</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1480050721377698</v>
+        <v>0.1506407677301321</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04481209525416483</v>
+        <v>0.04971087212522867</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>18</v>
+      </c>
+      <c r="J101" t="n">
+        <v>179</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
